--- a/LegacyDatabase/Users.xlsx
+++ b/LegacyDatabase/Users.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\LegacyDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE89653-391E-4EEB-81D4-D853EDA5431F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC776A3-CBB3-4376-9192-6D5B34F1CB4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2186,7 +2186,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
